--- a/biology/Médecine/Hadrianus_Junius/Hadrianus_Junius.xlsx
+++ b/biology/Médecine/Hadrianus_Junius/Hadrianus_Junius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hadrianus Junius ou Adriaen de Jonghe (1511-1575) est un médecin, humaniste et poète néerlandais, né à Hoorn le 1er juillet 1511, mort le 16 juin 1575, à Arnemuiden. Il est considéré aux Pays-Bas comme l'un des plus grands penseurs de ce pays avec Érasme.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hadrianus Junius ou Adriaen de Jonghe est né le 1er juillet 1511 à Hoorn, ville de Frise occidentale, partie de la Hollande, dans les Provinces-Unies.
 Son père avait été maire de la ville pendant cinq ans.
@@ -574,14 +588,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Œuvres publiées par Junius lui-même
-1531-1552 Nomenclator omnium rerum propria nomina variis linguis explicata indicans 1531-1552 ; Version latine : 1565, 1566, 1569, 1575, 1585 ; Version française : 1567, 1570 et 1575.Junius, Hadrianus (1511-1575) : Nomenclator octilinguis: omnium rerum propria nomina continens. Ab Adriano Junio antehac collectus, nunc vero renovatus, auctus, [...]. Accessit [...] alter Nomenclator e duobus veteribus glossariis, Hermanni Germbergii opera et studio, [...]. (Beigefügt in: Ranconnet, Aimar de: Thrésor de la langue françoyse, tant ancienne que moderne. Rev. et augm. [...] par Jean Nicot. [...] Ensemble le Nomenclator de Iunius [....].) - Paris: David Douceur, 1606. - [2], 192, [36] S. 2° - Signatur: Sch 100/206 Thesaurus Eruditionis der Projekte CAMENA - Corpus Automatum Multiplex Electorum Neolatinitatis Auctorum [1]
-1548 Lexicon Graecum. Lexicon Graecolatinum, Gesner Conrad, Junius Hadrianus, Basilea, 1548 : [2]
-1556 Animadversorum Libri VI. Hadriani Iunii Hornani medici Animadversorum libri sex : omnigenae lectionis thesaurus, in quibus infiniti pene autorum loci corriguntur &amp; declarantur, nunc primum &amp; nati, &amp; in lucem aediti ; Eiusdem de coma commentarium quo haud scio an quicquam extet in eo genere vel eruditius vel locupletius -[Michael Isengrin]-1556 [3] (numérisation e-rara.ch)
-1556 Commentarius de anno et mensibus. Fastorum liber sive Hemerologion. De Anno &amp; mensibus commentarius, item Fastorum lib. sive hēmerologeion : quo quicquid peculiariter apud Graecos, Hebraeos, Romanos, caeterasque exteras nationes memorabile quolibet die actum fuerit et observatum, compendio commonstratur / Praeterea calendarium syllabicum in quo totius anni dies ad calculum sunt vocati. Antiquitatis item reliquiae, fasti Caesariani imperante Augusto Caes. in marmore incisi, &amp; calendarium quod rusticum nominant ; Postremo Isocratis ad Demonicum admonitoria -[Heinrich Petri]-[1556] [4]
-1558 Adagiorum ab Erasmo omissorum centuriae octo cum dimidiâ. Adagiorum centuriae octo Centuriae VIII, cum dimidia Basilea 1558 [VD16 J 1091], Junius, Hadrianus, Basilea 1558 [5]
+          <t>Œuvres publiées par Junius lui-même</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1531-1552 Nomenclator omnium rerum propria nomina variis linguis explicata indicans 1531-1552 ; Version latine : 1565, 1566, 1569, 1575, 1585 ; Version française : 1567, 1570 et 1575.Junius, Hadrianus (1511-1575) : Nomenclator octilinguis: omnium rerum propria nomina continens. Ab Adriano Junio antehac collectus, nunc vero renovatus, auctus, [...]. Accessit [...] alter Nomenclator e duobus veteribus glossariis, Hermanni Germbergii opera et studio, [...]. (Beigefügt in: Ranconnet, Aimar de: Thrésor de la langue françoyse, tant ancienne que moderne. Rev. et augm. [...] par Jean Nicot. [...] Ensemble le Nomenclator de Iunius [....].) - Paris: David Douceur, 1606. - , 192,  S. 2° - Signatur: Sch 100/206 Thesaurus Eruditionis der Projekte CAMENA - Corpus Automatum Multiplex Electorum Neolatinitatis Auctorum 
+1548 Lexicon Graecum. Lexicon Graecolatinum, Gesner Conrad, Junius Hadrianus, Basilea, 1548 : 
+1556 Animadversorum Libri VI. Hadriani Iunii Hornani medici Animadversorum libri sex : omnigenae lectionis thesaurus, in quibus infiniti pene autorum loci corriguntur &amp; declarantur, nunc primum &amp; nati, &amp; in lucem aediti ; Eiusdem de coma commentarium quo haud scio an quicquam extet in eo genere vel eruditius vel locupletius -[Michael Isengrin]-1556  (numérisation e-rara.ch)
+1556 Commentarius de anno et mensibus. Fastorum liber sive Hemerologion. De Anno &amp; mensibus commentarius, item Fastorum lib. sive hēmerologeion : quo quicquid peculiariter apud Graecos, Hebraeos, Romanos, caeterasque exteras nationes memorabile quolibet die actum fuerit et observatum, compendio commonstratur / Praeterea calendarium syllabicum in quo totius anni dies ad calculum sunt vocati. Antiquitatis item reliquiae, fasti Caesariani imperante Augusto Caes. in marmore incisi, &amp; calendarium quod rusticum nominant ; Postremo Isocratis ad Demonicum admonitoria -[Heinrich Petri]- 
+1558 Adagiorum ab Erasmo omissorum centuriae octo cum dimidiâ. Adagiorum centuriae octo Centuriae VIII, cum dimidia Basilea 1558 [VD16 J 1091], Junius, Hadrianus, Basilea 1558 
 1558 Adagia 'Adagia (1558).
-1565 Aenigmata et Emblemata. Emblemata Hadriani Iunii medici Emblemata - Junius, Hadrianus, 1511-1575 Colophon on K4v: "Excudebat Christophorus Plantinus Antuerpiae, anno MDLXV idibus Maii [May 1565]. [6]
+1565 Aenigmata et Emblemata. Emblemata Hadriani Iunii medici Emblemata - Junius, Hadrianus, 1511-1575 Colophon on K4v: "Excudebat Christophorus Plantinus Antuerpiae, anno MDLXV idibus Maii [May 1565]. 
 Cassius Jatrosophista. Cassius medicus Livre des animaux
 Q. Curtius. Quinte Curse.
 Plutarchi Symposiaca Problemata. Traduction.
@@ -600,29 +619,131 @@
 Observationes in Plauti Comoedias.
 Hesychius Milesius Illustrius.
 Lugduni Batavorum ab obsidione liberatio. Fastus Ibericus. Augurium in Academiam L. Bat.
-Varia Carmina.
-Travaux publiés sous son nom
-Epicedia in mortem Caroli V, Ferdinandi Imperatoris et Erasmi (1)[1].
-Satyrae, inter quas Douzae nominantur Braccatus, Gerulus et Manicatus (2) [2].
-Annotationes in Plinium (3) [3].
-Isocratis Paraenesis ad Demonicum (4) [4].
-Theophylacti Symocatae Medicae Quaestiones (5) [5].
-Commentarius in utrumque Senecam (6) [6].
-Haec operâ locis allatis edita qu'idem ferun-tur ; ea autem typis mandata esse non adse verare audeo, siquidem certa mihi deficiunt testimonia (7) [7].
-Publications posthumes
-1581 Imperii ac sacerdotii ornatus . Diversarum item gentium peculiaris vestitus. Excudebat Abr. Bruin. His adjunxit commentariolos Caesar. Pontif. ac sacerdotum Hadr. Damman,... Omnium pene Europae, Asiae, Aphricae atque Americae gentium habitus. Abraham de Bruÿn excudit å 1581 -[s.n.]-15.. [7]
+Varia Carmina.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hadrianus_Junius</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hadrianus_Junius</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Travaux publiés sous son nom</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Epicedia in mortem Caroli V, Ferdinandi Imperatoris et Erasmi (1).
+Satyrae, inter quas Douzae nominantur Braccatus, Gerulus et Manicatus (2) .
+Annotationes in Plinium (3) .
+Isocratis Paraenesis ad Demonicum (4) .
+Theophylacti Symocatae Medicae Quaestiones (5) .
+Commentarius in utrumque Senecam (6) .
+Haec operâ locis allatis edita qu'idem ferun-tur ; ea autem typis mandata esse non adse verare audeo, siquidem certa mihi deficiunt testimonia (7) .</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hadrianus_Junius</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hadrianus_Junius</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications posthumes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1581 Imperii ac sacerdotii ornatus . Diversarum item gentium peculiaris vestitus. Excudebat Abr. Bruin. His adjunxit commentariolos Caesar. Pontif. ac sacerdotum Hadr. Damman,... Omnium pene Europae, Asiae, Aphricae atque Americae gentium habitus. Abraham de Bruÿn excudit å 1581 -[s.n.]-15.. 
 1588 Batavia, important travail historique sur la province de Hollande, Batavia (publié à titre posthume en 1588). En effet, Guillaume d'Orange l'avait nommé historien officiel de la province de Hollande en 1565. Junius connaissait personnellement Andrea Alciato (André Alciat) depuis son séjour à Bologne ; c'est ce dernier qui organisa la rencontre avec l'éditeur Christian Wechel à Paris pour une nouvelle édition de son principal ouvrage, le Nomenclator. On a remarqué que dans cet ouvrage, il fut le premier à attribuer à Laurent Coster l'invention de l'imprimerie.
-1588 Gemma Gemmarum, seu Nomenclatoris Hadr. Iunii epitome, Junius Hadrianus, Lipsia, 1588 : [8]
-1596 Eunapius Sardianus. Eunapiu tu Sardianu Bioi philosophon kai sophiston, [Heidelberg], 1596 : [9]
+1588 Gemma Gemmarum, seu Nomenclatoris Hadr. Iunii epitome, Junius Hadrianus, Lipsia, 1588 : 
+1596 Eunapius Sardianus. Eunapiu tu Sardianu Bioi philosophon kai sophiston, [Heidelberg], 1596 : 
 Joh. Ravisii Textoris Epithetorum Epitome.
 Adagiorum Compendium.
 Poematum Liber Primus.
 Observationes in Petronium.
 Epistolae, quibus accedit oratio.
 Echo.
-Epistola Lucani.
-Œuvres inédites
-Suidas.
+Epistola Lucani.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hadrianus_Junius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hadrianus_Junius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Œuvres inédites</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Suidas.
 Galenus.
 Lucanus.
 P. Vegetius.
@@ -642,37 +763,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Hadrianus_Junius</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hadrianus_Junius</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Études - Ouvrages de référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>SCHELTEMA, Diatribe in Hadriani Tunii vitam ; Amsterdam, 1836, in-8.
 Dirk van Miert et Steven Surdèl, « Junius, Hadrianus », dans Vies d'humanistes, (c) Accueil, n° 2007 :
 Valerius Andreas 1643 Castellanus 1618, 228-229;, 11-13;
 Petri de Jonghe, Viri Consularis Filius, Hornae apud Batavos anno 1512 ipsis Julii Kalendis natus pueritiae suae formatorem laudat Nicolaum Galium, ferrea, ut scribit memoria. Ipse vero non minus quoque memoria valuit, quippe Doctor Medicus, Historicus, Philologus, Poeta, linguarumque, praeter vernaculam, Italiae, Gallicæ, Hispanicae ; Germanicae, et Anglicae (quas juvenis dictiones obierat) ad haec Latinae, Grecaeque in paucis peritus ; quo nomine doctorum omnium admirationem laudemque meruit, atque ingenii tam varii, variis editis monumentis aeternam sibi memoriam comparavit.
-Freherus 1688, 1270; Pauli Freheri theatrum virorum eruditione clarorum, In quo vitæ &amp; scripta theologorum, jureconsultorum, medicorum &amp; philosophorum, tàm in Germania superiore &amp; inferiore, quàm in aliis Europæ regionibus, Græcia nempè, Hispania, Italia, Gallia, Anglia, Polonia, Hungaria, Bohemia, Dania &amp; Suecia a seculis aliquot, ad hæc usque tempora, florentium, secundum annorum emortalium seriem, tanquam variis in scenis repræsentantur. Opus omnibus eruditis lectu jucundissimum in quatuor partes divisum, quarum I. Theologos varios. II. Magnates, jurisconsultos &amp; politicos. III. Medicos, chymicos, botanicos, anatomicos &amp;c. IV. Philosophos, philologos, historicos, mathematicos, poetas, &amp;c. complectitur. Cum indice locupletissimo [10]
+Freherus 1688, 1270; Pauli Freheri theatrum virorum eruditione clarorum, In quo vitæ &amp; scripta theologorum, jureconsultorum, medicorum &amp; philosophorum, tàm in Germania superiore &amp; inferiore, quàm in aliis Europæ regionibus, Græcia nempè, Hispania, Italia, Gallia, Anglia, Polonia, Hungaria, Bohemia, Dania &amp; Suecia a seculis aliquot, ad hæc usque tempora, florentium, secundum annorum emortalium seriem, tanquam variis in scenis repræsentantur. Opus omnibus eruditis lectu jucundissimum in quatuor partes divisum, quarum I. Theologos varios. II. Magnates, jurisconsultos &amp; politicos. III. Medicos, chymicos, botanicos, anatomicos &amp;c. IV. Philosophos, philologos, historicos, mathematicos, poetas, &amp;c. complectitur. Cum indice locupletissimo 
 Bayle 1697, 205-208; 1820, 476-481 ;
 Morery 1702 (284);
 Niceron 1729-1745;
@@ -685,31 +808,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Hadrianus_Junius</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hadrianus_Junius</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Études critiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Aston, M. bedpost Le Roi: Réforme et de l'iconographie dans un portrait de groupe Tudor, 1993, 176-199;
 Heesakkers, CL 'Neulateinische Geschichtsschreibung im Holländischem Humanismus des 16. Jahrthuderts dans ACNG, 201-209;
